--- a/classfiers/bloated/elm/smote/bloated_elm__smote_results.xlsx
+++ b/classfiers/bloated/elm/smote/bloated_elm__smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9626168224299065</v>
+        <v>0.9339622641509434</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9951690821256038</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9786223277909739</v>
+        <v>0.9658536585365853</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9968277663743235</v>
+        <v>0.9882650029708854</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9409282700421941</v>
+        <v>0.9552238805970149</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9695652173913044</v>
+        <v>0.9770992366412213</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9932838751007419</v>
+        <v>0.9938945374800638</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9234042553191489</v>
+        <v>0.8716814159292036</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9601769911504424</v>
+        <v>0.9314420803782506</v>
       </c>
       <c r="E4" t="n">
-        <v>0.987601000185985</v>
+        <v>0.9775306061510898</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9300411522633745</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9637526652452025</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9862478707050564</v>
+        <v>0.9946260635915809</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9377593360995851</v>
+        <v>0.96875</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9954128440366973</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9678800856531049</v>
+        <v>0.9819004524886877</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9811791100585817</v>
+        <v>0.9938837920489297</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9389499672308418</v>
+        <v>0.9353971963459585</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990338164251208</v>
+        <v>0.9990825688073395</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9679994574462055</v>
+        <v>0.9658536802035436</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9890279244849376</v>
+        <v>0.98964000044851</v>
       </c>
     </row>
   </sheetData>
